--- a/xlsx/卡達_intext.xlsx
+++ b/xlsx/卡達_intext.xlsx
@@ -29,7 +29,7 @@
     <t>開特</t>
   </si>
   <si>
-    <t>政策_政策_美國_卡達</t>
+    <t>体育运动_体育运动_南非_卡達</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
